--- a/tut05/output/0501EE07.xlsx
+++ b/tut05/output/0501EE07.xlsx
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.959183673469388</v>
+        <v>7.96</v>
       </c>
       <c r="C6" t="n">
-        <v>6.840909090909091</v>
+        <v>6.84</v>
       </c>
       <c r="D6" t="n">
-        <v>7.456521739130435</v>
+        <v>7.46</v>
       </c>
       <c r="E6" t="n">
-        <v>7.217391304347826</v>
+        <v>7.22</v>
       </c>
       <c r="F6" t="n">
-        <v>7.076923076923077</v>
+        <v>7.08</v>
       </c>
       <c r="G6" t="n">
         <v>6.25</v>
       </c>
       <c r="H6" t="n">
-        <v>6.325581395348837</v>
+        <v>6.33</v>
       </c>
       <c r="I6" t="n">
-        <v>5.157894736842105</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.959183673469388</v>
+        <v>7.96</v>
       </c>
       <c r="C8" t="n">
-        <v>7.43010752688172</v>
+        <v>7.43</v>
       </c>
       <c r="D8" t="n">
-        <v>7.438848920863309</v>
+        <v>7.44</v>
       </c>
       <c r="E8" t="n">
-        <v>7.383783783783784</v>
+        <v>7.38</v>
       </c>
       <c r="F8" t="n">
-        <v>7.330357142857143</v>
+        <v>7.33</v>
       </c>
       <c r="G8" t="n">
-        <v>7.166666666666667</v>
+        <v>7.17</v>
       </c>
       <c r="H8" t="n">
-        <v>7.04885993485342</v>
+        <v>7.05</v>
       </c>
       <c r="I8" t="n">
-        <v>6.840579710144928</v>
+        <v>6.84</v>
       </c>
     </row>
   </sheetData>
